--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N2">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q2">
-        <v>22.18810959804167</v>
+        <v>18.4947472158</v>
       </c>
       <c r="R2">
-        <v>199.692986382375</v>
+        <v>166.4527249422</v>
       </c>
       <c r="S2">
-        <v>0.0006302958855006019</v>
+        <v>0.0004389715307307134</v>
       </c>
       <c r="T2">
-        <v>0.0006302958855006021</v>
+        <v>0.0004389715307307134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q3">
-        <v>40.70806175946667</v>
+        <v>35.705781616</v>
       </c>
       <c r="R3">
-        <v>366.3725558352</v>
+        <v>321.352034544</v>
       </c>
       <c r="S3">
-        <v>0.001156390710994182</v>
+        <v>0.0008474742276294532</v>
       </c>
       <c r="T3">
-        <v>0.001156390710994182</v>
+        <v>0.0008474742276294531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N4">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q4">
-        <v>84.54582256872834</v>
+        <v>100.22258884015</v>
       </c>
       <c r="R4">
-        <v>760.9124031185551</v>
+        <v>902.00329956135</v>
       </c>
       <c r="S4">
-        <v>0.002401686536920509</v>
+        <v>0.00237877613160189</v>
       </c>
       <c r="T4">
-        <v>0.00240168653692051</v>
+        <v>0.00237877613160189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N5">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O5">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P5">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q5">
-        <v>24.06286327489389</v>
+        <v>11.05324751036667</v>
       </c>
       <c r="R5">
-        <v>216.565769474045</v>
+        <v>99.4792275933</v>
       </c>
       <c r="S5">
-        <v>0.0006835518658546639</v>
+        <v>0.0002623480560483683</v>
       </c>
       <c r="T5">
-        <v>0.0006835518658546641</v>
+        <v>0.0002623480560483683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N6">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O6">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P6">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q6">
-        <v>125.2934476115889</v>
+        <v>16.46274363026667</v>
       </c>
       <c r="R6">
-        <v>1127.6410285043</v>
+        <v>148.1646926724</v>
       </c>
       <c r="S6">
-        <v>0.003559201118996628</v>
+        <v>0.0003907420678467958</v>
       </c>
       <c r="T6">
-        <v>0.003559201118996628</v>
+        <v>0.0003907420678467957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N7">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q7">
-        <v>30.47714592614166</v>
+        <v>28.963048544212</v>
       </c>
       <c r="R7">
-        <v>274.294313335275</v>
+        <v>260.667436897908</v>
       </c>
       <c r="S7">
-        <v>0.0008657618890049098</v>
+        <v>0.0006874359300904213</v>
       </c>
       <c r="T7">
-        <v>0.0008657618890049098</v>
+        <v>0.0006874359300904212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q8">
-        <v>55.91578377290667</v>
+        <v>55.91578377290666</v>
       </c>
       <c r="R8">
         <v>503.24205395616</v>
       </c>
       <c r="S8">
-        <v>0.001588395274995172</v>
+        <v>0.001327157214337665</v>
       </c>
       <c r="T8">
-        <v>0.001588395274995172</v>
+        <v>0.001327157214337665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N9">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q9">
-        <v>116.1304598973243</v>
+        <v>156.9500611137877</v>
       </c>
       <c r="R9">
-        <v>1045.174139075919</v>
+        <v>1412.550550024089</v>
       </c>
       <c r="S9">
-        <v>0.003298908847152826</v>
+        <v>0.003725198715694814</v>
       </c>
       <c r="T9">
-        <v>0.003298908847152826</v>
+        <v>0.003725198715694814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N10">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O10">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P10">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q10">
-        <v>33.05227027968456</v>
+        <v>17.30954959689578</v>
       </c>
       <c r="R10">
-        <v>297.470432517161</v>
+        <v>155.785946372062</v>
       </c>
       <c r="S10">
-        <v>0.0009389132441268322</v>
+        <v>0.0004108409481972944</v>
       </c>
       <c r="T10">
-        <v>0.0009389132441268323</v>
+        <v>0.0004108409481972944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N11">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O11">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P11">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q11">
-        <v>172.1005870092156</v>
+        <v>25.78090078068178</v>
       </c>
       <c r="R11">
-        <v>1548.90528308294</v>
+        <v>232.028107026136</v>
       </c>
       <c r="S11">
-        <v>0.004888847849107475</v>
+        <v>0.0006119078756396508</v>
       </c>
       <c r="T11">
-        <v>0.004888847849107474</v>
+        <v>0.0006119078756396507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N12">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q12">
-        <v>1202.008651695975</v>
+        <v>1863.21531762296</v>
       </c>
       <c r="R12">
-        <v>10818.07786526377</v>
+        <v>16768.93785860664</v>
       </c>
       <c r="S12">
-        <v>0.034145365298131</v>
+        <v>0.0442232851584549</v>
       </c>
       <c r="T12">
-        <v>0.034145365298131</v>
+        <v>0.04422328515845489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q13">
-        <v>2205.300195243841</v>
+        <v>3597.105624552533</v>
       </c>
       <c r="R13">
-        <v>19847.70175719457</v>
+        <v>32373.9506209728</v>
       </c>
       <c r="S13">
-        <v>0.06264578932305924</v>
+        <v>0.08537705023948244</v>
       </c>
       <c r="T13">
-        <v>0.06264578932305924</v>
+        <v>0.08537705023948242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N14">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q14">
-        <v>4580.147296610332</v>
+        <v>10096.71884237851</v>
       </c>
       <c r="R14">
-        <v>41221.32566949298</v>
+        <v>90870.46958140662</v>
       </c>
       <c r="S14">
-        <v>0.1301078842829852</v>
+        <v>0.2396449150605391</v>
       </c>
       <c r="T14">
-        <v>0.1301078842829851</v>
+        <v>0.2396449150605391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N15">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O15">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P15">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q15">
-        <v>1303.570712646589</v>
+        <v>1113.536715613996</v>
       </c>
       <c r="R15">
-        <v>11732.1364138193</v>
+        <v>10021.83044052596</v>
       </c>
       <c r="S15">
-        <v>0.03703043078139251</v>
+        <v>0.02642971600932925</v>
       </c>
       <c r="T15">
-        <v>0.03703043078139252</v>
+        <v>0.02642971600932924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N16">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O16">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P16">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q16">
-        <v>6787.590775342062</v>
+        <v>1658.505290399876</v>
       </c>
       <c r="R16">
-        <v>61088.31697807855</v>
+        <v>14926.54761359888</v>
       </c>
       <c r="S16">
-        <v>0.1928145576916358</v>
+        <v>0.0393645069898474</v>
       </c>
       <c r="T16">
-        <v>0.1928145576916357</v>
+        <v>0.03936450698984739</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N17">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q17">
-        <v>3.861262660508333</v>
+        <v>4.141862250111999</v>
       </c>
       <c r="R17">
-        <v>34.751363944575</v>
+        <v>37.276760251008</v>
       </c>
       <c r="S17">
-        <v>0.000109686584925212</v>
+        <v>9.830681061994586E-05</v>
       </c>
       <c r="T17">
-        <v>0.000109686584925212</v>
+        <v>9.830681061994585E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.29568</v>
       </c>
       <c r="O18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q18">
-        <v>7.084178044053334</v>
+        <v>7.996239540906666</v>
       </c>
       <c r="R18">
-        <v>63.75760239648</v>
+        <v>71.96615586816</v>
       </c>
       <c r="S18">
-        <v>0.0002012396889239547</v>
+        <v>0.0001897901858513952</v>
       </c>
       <c r="T18">
-        <v>0.0002012396889239547</v>
+        <v>0.0001897901858513952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N19">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q19">
-        <v>14.71299870518967</v>
+        <v>22.44465158036267</v>
       </c>
       <c r="R19">
-        <v>132.416988346707</v>
+        <v>202.001864223264</v>
       </c>
       <c r="S19">
-        <v>0.0004179509978657767</v>
+        <v>0.0005327222343721634</v>
       </c>
       <c r="T19">
-        <v>0.0004179509978657766</v>
+        <v>0.0005327222343721634</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N20">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O20">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P20">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q20">
-        <v>4.187514716281444</v>
+        <v>2.475353032412444</v>
       </c>
       <c r="R20">
-        <v>37.687632446533</v>
+        <v>22.278177291712</v>
       </c>
       <c r="S20">
-        <v>0.0001189544014321241</v>
+        <v>5.875233097583065E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001189544014321242</v>
+        <v>5.875233097583064E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N21">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O21">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P21">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q21">
-        <v>21.80406170842445</v>
+        <v>3.686799045148444</v>
       </c>
       <c r="R21">
-        <v>196.23655537582</v>
+        <v>33.181191406336</v>
       </c>
       <c r="S21">
-        <v>0.0006193862672840827</v>
+        <v>8.750591729973751E-05</v>
       </c>
       <c r="T21">
-        <v>0.0006193862672840825</v>
+        <v>8.750591729973749E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N22">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q22">
-        <v>1373.154747551558</v>
+        <v>2368.049985595144</v>
       </c>
       <c r="R22">
-        <v>12358.39272796402</v>
+        <v>21312.4498703563</v>
       </c>
       <c r="S22">
-        <v>0.03900709899205446</v>
+        <v>0.05620550066969811</v>
       </c>
       <c r="T22">
-        <v>0.03900709899205446</v>
+        <v>0.05620550066969811</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.29568</v>
       </c>
       <c r="O23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q23">
-        <v>2519.298366615574</v>
+        <v>4571.734593333546</v>
       </c>
       <c r="R23">
-        <v>22673.68529954016</v>
+        <v>41145.61134000192</v>
       </c>
       <c r="S23">
-        <v>0.07156551069886245</v>
+        <v>0.108509800599801</v>
       </c>
       <c r="T23">
-        <v>0.07156551069886245</v>
+        <v>0.108509800599801</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N24">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q24">
-        <v>5232.284306732809</v>
+        <v>12832.40572525767</v>
       </c>
       <c r="R24">
-        <v>47090.55876059528</v>
+        <v>115491.651527319</v>
       </c>
       <c r="S24">
-        <v>0.1486330890755169</v>
+        <v>0.3045762517565866</v>
       </c>
       <c r="T24">
-        <v>0.1486330890755169</v>
+        <v>0.3045762517565866</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N25">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O25">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P25">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q25">
-        <v>1489.177561504424</v>
+        <v>1415.24738361076</v>
       </c>
       <c r="R25">
-        <v>13402.59805353981</v>
+        <v>12737.22645249685</v>
       </c>
       <c r="S25">
-        <v>0.04230294994932336</v>
+        <v>0.0335907975976832</v>
       </c>
       <c r="T25">
-        <v>0.04230294994932336</v>
+        <v>0.0335907975976832</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N26">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O26">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P26">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q26">
-        <v>7754.031124857106</v>
+        <v>2107.874163492493</v>
       </c>
       <c r="R26">
-        <v>69786.28012371395</v>
+        <v>18970.86747143243</v>
       </c>
       <c r="S26">
-        <v>0.2202681527439542</v>
+        <v>0.05003024574164191</v>
       </c>
       <c r="T26">
-        <v>0.2202681527439542</v>
+        <v>0.0500302457416419</v>
       </c>
     </row>
   </sheetData>
